--- a/assets/Libro11.xlsx
+++ b/assets/Libro11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\profesor\rustprj\hipotecas\target\debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\profesor\rustprj\hipotecas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Fecha escritura</t>
-  </si>
-  <si>
-    <t>Meses hasta primera cuota</t>
   </si>
   <si>
     <t>Capital prestado (Euros)</t>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Importe total de la deuda a la fecha de resolución:</t>
+  </si>
+  <si>
+    <t>Fecha primera cuota</t>
   </si>
 </sst>
 </file>
@@ -396,6 +396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,8 +419,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,8 +710,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,26 +722,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -761,15 +761,15 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39158</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
         <v>84140</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>300</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <v>12</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
         <v>12</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>43237</v>
@@ -841,25 +841,25 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9">
         <v>44778</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10"/>
@@ -885,6 +885,7 @@
     <mergeCell ref="B24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -909,32 +910,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>39158</v>
       </c>
       <c r="B2">
@@ -960,7 +961,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>39189</v>
       </c>
       <c r="B3">
@@ -986,7 +987,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>39219</v>
       </c>
       <c r="B4">
@@ -1012,7 +1013,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>39250</v>
       </c>
       <c r="B5">
@@ -1038,7 +1039,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="13">
         <v>39280</v>
       </c>
       <c r="B6">
@@ -1064,7 +1065,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="13">
         <v>39311</v>
       </c>
       <c r="B7">
@@ -1090,7 +1091,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <v>39342</v>
       </c>
       <c r="B8">
@@ -1116,7 +1117,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="13">
         <v>39372</v>
       </c>
       <c r="B9">
@@ -1142,7 +1143,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <v>39403</v>
       </c>
       <c r="B10">
@@ -1168,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="13">
         <v>39433</v>
       </c>
       <c r="B11">
@@ -1194,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="13">
         <v>39464</v>
       </c>
       <c r="B12">
@@ -1220,7 +1221,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="13">
         <v>39495</v>
       </c>
       <c r="B13">
@@ -1246,7 +1247,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="13">
         <v>39524</v>
       </c>
       <c r="B14">
@@ -1272,7 +1273,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="13">
         <v>39555</v>
       </c>
       <c r="B15">
@@ -1298,7 +1299,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="13">
         <v>39585</v>
       </c>
       <c r="B16">
@@ -1324,7 +1325,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="13">
         <v>39616</v>
       </c>
       <c r="B17">
@@ -1350,7 +1351,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="13">
         <v>39646</v>
       </c>
       <c r="B18">
@@ -1376,7 +1377,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="13">
         <v>39677</v>
       </c>
       <c r="B19">
@@ -1402,7 +1403,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="13">
         <v>39708</v>
       </c>
       <c r="B20">
@@ -1428,7 +1429,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="13">
         <v>39738</v>
       </c>
       <c r="B21">
@@ -1454,7 +1455,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="13">
         <v>39769</v>
       </c>
       <c r="B22">
@@ -1480,7 +1481,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="13">
         <v>39799</v>
       </c>
       <c r="B23">
@@ -1506,7 +1507,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="13">
         <v>39830</v>
       </c>
       <c r="B24">
@@ -1532,7 +1533,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="13">
         <v>39861</v>
       </c>
       <c r="B25">
@@ -1558,7 +1559,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="13">
         <v>39889</v>
       </c>
       <c r="B26">
@@ -1584,7 +1585,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="13">
         <v>39920</v>
       </c>
       <c r="B27">
@@ -1610,7 +1611,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="13">
         <v>39950</v>
       </c>
       <c r="B28">
@@ -1636,7 +1637,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="13">
         <v>39981</v>
       </c>
       <c r="B29">
@@ -1662,7 +1663,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="13">
         <v>40011</v>
       </c>
       <c r="B30">
@@ -1688,7 +1689,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="13">
         <v>40042</v>
       </c>
       <c r="B31">
@@ -1714,7 +1715,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="13">
         <v>40073</v>
       </c>
       <c r="B32">
@@ -1740,7 +1741,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="13">
         <v>40103</v>
       </c>
       <c r="B33">
@@ -1766,7 +1767,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="13">
         <v>40134</v>
       </c>
       <c r="B34">
@@ -1792,7 +1793,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="13">
         <v>40164</v>
       </c>
       <c r="B35">
@@ -1818,7 +1819,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="13">
         <v>40195</v>
       </c>
       <c r="B36">
@@ -1844,7 +1845,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="13">
         <v>40226</v>
       </c>
       <c r="B37">
@@ -1870,7 +1871,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="13">
         <v>40254</v>
       </c>
       <c r="B38">
@@ -1896,7 +1897,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="13">
         <v>40285</v>
       </c>
       <c r="B39">
@@ -1922,7 +1923,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="13">
         <v>40315</v>
       </c>
       <c r="B40">
@@ -1948,7 +1949,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="13">
         <v>40346</v>
       </c>
       <c r="B41">
@@ -1974,7 +1975,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="13">
         <v>40376</v>
       </c>
       <c r="B42">
@@ -2000,7 +2001,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="13">
         <v>40407</v>
       </c>
       <c r="B43">
@@ -2026,7 +2027,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="13">
         <v>40438</v>
       </c>
       <c r="B44">
@@ -2052,7 +2053,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="13">
         <v>40468</v>
       </c>
       <c r="B45">
@@ -2078,7 +2079,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="13">
         <v>40499</v>
       </c>
       <c r="B46">
@@ -2104,7 +2105,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="13">
         <v>40529</v>
       </c>
       <c r="B47">
@@ -2130,7 +2131,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="13">
         <v>40560</v>
       </c>
       <c r="B48">
@@ -2156,7 +2157,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="13">
         <v>40591</v>
       </c>
       <c r="B49">
@@ -2182,7 +2183,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="13">
         <v>40619</v>
       </c>
       <c r="B50">
@@ -2208,7 +2209,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="13">
         <v>40650</v>
       </c>
       <c r="B51">
@@ -2234,7 +2235,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="13">
         <v>40680</v>
       </c>
       <c r="B52">
@@ -2260,7 +2261,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" s="13">
         <v>40711</v>
       </c>
       <c r="B53">
@@ -2286,7 +2287,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+      <c r="A54" s="13">
         <v>40741</v>
       </c>
       <c r="B54">
@@ -2312,7 +2313,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+      <c r="A55" s="13">
         <v>40772</v>
       </c>
       <c r="B55">
@@ -2338,7 +2339,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+      <c r="A56" s="13">
         <v>40803</v>
       </c>
       <c r="B56">
@@ -2364,7 +2365,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+      <c r="A57" s="13">
         <v>40833</v>
       </c>
       <c r="B57">
@@ -2390,7 +2391,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
+      <c r="A58" s="13">
         <v>40864</v>
       </c>
       <c r="B58">
@@ -2416,7 +2417,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
+      <c r="A59" s="13">
         <v>40894</v>
       </c>
       <c r="B59">
@@ -2442,7 +2443,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
+      <c r="A60" s="13">
         <v>40925</v>
       </c>
       <c r="B60">
@@ -2468,7 +2469,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+      <c r="A61" s="13">
         <v>40956</v>
       </c>
       <c r="B61">
@@ -2494,7 +2495,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
+      <c r="A62" s="13">
         <v>40985</v>
       </c>
       <c r="B62">
@@ -2520,7 +2521,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
+      <c r="A63" s="13">
         <v>41016</v>
       </c>
       <c r="B63">
@@ -2546,7 +2547,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+      <c r="A64" s="13">
         <v>41046</v>
       </c>
       <c r="B64">
@@ -2572,7 +2573,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="13">
         <v>41077</v>
       </c>
       <c r="B65">
@@ -2598,7 +2599,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
+      <c r="A66" s="13">
         <v>41107</v>
       </c>
       <c r="B66">
@@ -2624,7 +2625,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
+      <c r="A67" s="13">
         <v>41138</v>
       </c>
       <c r="B67">
@@ -2650,7 +2651,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
+      <c r="A68" s="13">
         <v>41169</v>
       </c>
       <c r="B68">
@@ -2676,7 +2677,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
+      <c r="A69" s="13">
         <v>41199</v>
       </c>
       <c r="B69">
@@ -2702,7 +2703,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+      <c r="A70" s="13">
         <v>41230</v>
       </c>
       <c r="B70">
@@ -2728,7 +2729,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+      <c r="A71" s="13">
         <v>41260</v>
       </c>
       <c r="B71">
@@ -2754,7 +2755,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
+      <c r="A72" s="13">
         <v>41291</v>
       </c>
       <c r="B72">
@@ -2780,7 +2781,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
+      <c r="A73" s="13">
         <v>41322</v>
       </c>
       <c r="B73">
@@ -2806,7 +2807,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
+      <c r="A74" s="13">
         <v>41350</v>
       </c>
       <c r="B74">
@@ -2832,7 +2833,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
+      <c r="A75" s="13">
         <v>41381</v>
       </c>
       <c r="B75">
@@ -2858,7 +2859,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
+      <c r="A76" s="13">
         <v>41411</v>
       </c>
       <c r="B76">
@@ -2884,7 +2885,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+      <c r="A77" s="13">
         <v>41442</v>
       </c>
       <c r="B77">
@@ -2910,7 +2911,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
+      <c r="A78" s="13">
         <v>41472</v>
       </c>
       <c r="B78">
@@ -2936,7 +2937,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
+      <c r="A79" s="13">
         <v>41503</v>
       </c>
       <c r="B79">
@@ -2962,7 +2963,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
+      <c r="A80" s="13">
         <v>41534</v>
       </c>
       <c r="B80">
@@ -2988,7 +2989,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
+      <c r="A81" s="13">
         <v>41564</v>
       </c>
       <c r="B81">
@@ -3014,7 +3015,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
+      <c r="A82" s="13">
         <v>41595</v>
       </c>
       <c r="B82">
@@ -3040,7 +3041,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
+      <c r="A83" s="13">
         <v>41625</v>
       </c>
       <c r="B83">
@@ -3066,7 +3067,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
+      <c r="A84" s="13">
         <v>41656</v>
       </c>
       <c r="B84">
@@ -3092,7 +3093,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
+      <c r="A85" s="13">
         <v>41687</v>
       </c>
       <c r="B85">
@@ -3118,7 +3119,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="20">
+      <c r="A86" s="13">
         <v>41715</v>
       </c>
       <c r="B86">
@@ -3144,7 +3145,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
+      <c r="A87" s="13">
         <v>41746</v>
       </c>
       <c r="B87">
@@ -3170,7 +3171,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
+      <c r="A88" s="13">
         <v>41776</v>
       </c>
       <c r="B88">
@@ -3196,7 +3197,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="20">
+      <c r="A89" s="13">
         <v>41807</v>
       </c>
       <c r="B89">
@@ -3222,7 +3223,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="20">
+      <c r="A90" s="13">
         <v>41837</v>
       </c>
       <c r="B90">
@@ -3248,7 +3249,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
+      <c r="A91" s="13">
         <v>41868</v>
       </c>
       <c r="B91">
@@ -3274,7 +3275,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
+      <c r="A92" s="13">
         <v>41899</v>
       </c>
       <c r="B92">
@@ -3300,7 +3301,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="20">
+      <c r="A93" s="13">
         <v>41929</v>
       </c>
       <c r="B93">
@@ -3326,7 +3327,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="20">
+      <c r="A94" s="13">
         <v>41960</v>
       </c>
       <c r="B94">
@@ -3352,7 +3353,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="20">
+      <c r="A95" s="13">
         <v>41990</v>
       </c>
       <c r="B95">
@@ -3378,7 +3379,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
+      <c r="A96" s="13">
         <v>42021</v>
       </c>
       <c r="B96">
@@ -3404,7 +3405,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
+      <c r="A97" s="13">
         <v>42052</v>
       </c>
       <c r="B97">
@@ -3430,7 +3431,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
+      <c r="A98" s="13">
         <v>42080</v>
       </c>
       <c r="B98">
@@ -3456,7 +3457,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="20">
+      <c r="A99" s="13">
         <v>42111</v>
       </c>
       <c r="B99">
@@ -3482,7 +3483,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+      <c r="A100" s="13">
         <v>42141</v>
       </c>
       <c r="B100">
@@ -3508,7 +3509,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
+      <c r="A101" s="13">
         <v>42172</v>
       </c>
       <c r="B101">
@@ -3534,7 +3535,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
+      <c r="A102" s="13">
         <v>42202</v>
       </c>
       <c r="B102">
@@ -3560,7 +3561,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
+      <c r="A103" s="13">
         <v>42233</v>
       </c>
       <c r="B103">
@@ -3586,7 +3587,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
+      <c r="A104" s="13">
         <v>42264</v>
       </c>
       <c r="B104">
@@ -3612,7 +3613,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
+      <c r="A105" s="13">
         <v>42294</v>
       </c>
       <c r="B105">
@@ -3638,7 +3639,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
+      <c r="A106" s="13">
         <v>42325</v>
       </c>
       <c r="B106">
@@ -3664,7 +3665,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
+      <c r="A107" s="13">
         <v>42355</v>
       </c>
       <c r="B107">
@@ -3690,7 +3691,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
+      <c r="A108" s="13">
         <v>42386</v>
       </c>
       <c r="B108">
@@ -3716,7 +3717,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
+      <c r="A109" s="13">
         <v>42417</v>
       </c>
       <c r="B109">
@@ -3742,7 +3743,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
+      <c r="A110" s="13">
         <v>42446</v>
       </c>
       <c r="B110">
@@ -3768,7 +3769,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
+      <c r="A111" s="13">
         <v>42477</v>
       </c>
       <c r="B111">
@@ -3794,7 +3795,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="20">
+      <c r="A112" s="13">
         <v>42507</v>
       </c>
       <c r="B112">
@@ -3820,7 +3821,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
+      <c r="A113" s="13">
         <v>42538</v>
       </c>
       <c r="B113">
@@ -3846,7 +3847,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="20">
+      <c r="A114" s="13">
         <v>42568</v>
       </c>
       <c r="B114">
@@ -3872,7 +3873,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
+      <c r="A115" s="13">
         <v>42599</v>
       </c>
       <c r="B115">
@@ -3898,7 +3899,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
+      <c r="A116" s="13">
         <v>42630</v>
       </c>
       <c r="B116">
@@ -3924,7 +3925,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="20">
+      <c r="A117" s="13">
         <v>42660</v>
       </c>
       <c r="B117">
@@ -3950,7 +3951,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="20">
+      <c r="A118" s="13">
         <v>42691</v>
       </c>
       <c r="B118">
@@ -3976,7 +3977,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="20">
+      <c r="A119" s="13">
         <v>42721</v>
       </c>
       <c r="B119">
@@ -4002,7 +4003,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="20">
+      <c r="A120" s="13">
         <v>42752</v>
       </c>
       <c r="B120">
@@ -4028,7 +4029,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="20">
+      <c r="A121" s="13">
         <v>42783</v>
       </c>
       <c r="B121">
@@ -4054,7 +4055,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="20">
+      <c r="A122" s="13">
         <v>42811</v>
       </c>
       <c r="B122">
@@ -4080,7 +4081,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
+      <c r="A123" s="13">
         <v>42842</v>
       </c>
       <c r="B123">
@@ -4106,7 +4107,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="20">
+      <c r="A124" s="13">
         <v>42872</v>
       </c>
       <c r="B124">
@@ -4132,7 +4133,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="20">
+      <c r="A125" s="13">
         <v>42903</v>
       </c>
       <c r="B125">
@@ -4158,7 +4159,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="20">
+      <c r="A126" s="13">
         <v>42933</v>
       </c>
       <c r="B126">
@@ -4184,7 +4185,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="20">
+      <c r="A127" s="13">
         <v>42964</v>
       </c>
       <c r="B127">
@@ -4210,7 +4211,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="20">
+      <c r="A128" s="13">
         <v>42995</v>
       </c>
       <c r="B128">
@@ -4236,7 +4237,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="20">
+      <c r="A129" s="13">
         <v>43025</v>
       </c>
       <c r="B129">
@@ -4262,7 +4263,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="20">
+      <c r="A130" s="13">
         <v>43056</v>
       </c>
       <c r="B130">
@@ -4288,7 +4289,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="20">
+      <c r="A131" s="13">
         <v>43086</v>
       </c>
       <c r="B131">
@@ -4314,7 +4315,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="20">
+      <c r="A132" s="13">
         <v>43117</v>
       </c>
       <c r="B132">
@@ -4340,7 +4341,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="20">
+      <c r="A133" s="13">
         <v>43148</v>
       </c>
       <c r="B133">
@@ -4366,7 +4367,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="20">
+      <c r="A134" s="13">
         <v>43176</v>
       </c>
       <c r="B134">
@@ -4392,7 +4393,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="20">
+      <c r="A135" s="13">
         <v>43207</v>
       </c>
       <c r="B135">
@@ -4418,7 +4419,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
+      <c r="A136" s="13">
         <v>43237</v>
       </c>
       <c r="B136">
@@ -4444,7 +4445,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="20">
+      <c r="A137" s="13">
         <v>43268</v>
       </c>
       <c r="B137">
@@ -4470,7 +4471,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="20">
+      <c r="A138" s="13">
         <v>43298</v>
       </c>
       <c r="B138">
@@ -4496,7 +4497,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
+      <c r="A139" s="13">
         <v>43329</v>
       </c>
       <c r="B139">
@@ -4522,7 +4523,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="20">
+      <c r="A140" s="13">
         <v>43360</v>
       </c>
       <c r="B140">
@@ -4548,7 +4549,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="20">
+      <c r="A141" s="13">
         <v>43390</v>
       </c>
       <c r="B141">
@@ -4574,7 +4575,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="20">
+      <c r="A142" s="13">
         <v>43421</v>
       </c>
       <c r="B142">
@@ -4600,7 +4601,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="20">
+      <c r="A143" s="13">
         <v>43451</v>
       </c>
       <c r="B143">
@@ -4626,7 +4627,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="20">
+      <c r="A144" s="13">
         <v>43482</v>
       </c>
       <c r="B144">
@@ -4652,7 +4653,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="20">
+      <c r="A145" s="13">
         <v>43513</v>
       </c>
       <c r="B145">
@@ -4678,7 +4679,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="20">
+      <c r="A146" s="13">
         <v>43541</v>
       </c>
       <c r="B146">
@@ -4704,7 +4705,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="20">
+      <c r="A147" s="13">
         <v>43572</v>
       </c>
       <c r="B147">
@@ -4730,7 +4731,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="20">
+      <c r="A148" s="13">
         <v>43602</v>
       </c>
       <c r="B148">
@@ -4756,7 +4757,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="20">
+      <c r="A149" s="13">
         <v>43633</v>
       </c>
       <c r="B149">
@@ -4782,7 +4783,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="20">
+      <c r="A150" s="13">
         <v>43663</v>
       </c>
       <c r="B150">
@@ -4808,7 +4809,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="20">
+      <c r="A151" s="13">
         <v>43694</v>
       </c>
       <c r="B151">
@@ -4834,7 +4835,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="20">
+      <c r="A152" s="13">
         <v>43725</v>
       </c>
       <c r="B152">
@@ -4860,7 +4861,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="20">
+      <c r="A153" s="13">
         <v>43755</v>
       </c>
       <c r="B153">
@@ -4886,7 +4887,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="20">
+      <c r="A154" s="13">
         <v>43786</v>
       </c>
       <c r="B154">
@@ -4912,7 +4913,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="20">
+      <c r="A155" s="13">
         <v>43816</v>
       </c>
       <c r="B155">
@@ -4938,7 +4939,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="20">
+      <c r="A156" s="13">
         <v>43847</v>
       </c>
       <c r="B156">
@@ -4964,7 +4965,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="20">
+      <c r="A157" s="13">
         <v>43878</v>
       </c>
       <c r="B157">
@@ -4990,7 +4991,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="20">
+      <c r="A158" s="13">
         <v>43907</v>
       </c>
       <c r="B158">
@@ -5016,7 +5017,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="20">
+      <c r="A159" s="13">
         <v>43938</v>
       </c>
       <c r="B159">
@@ -5042,7 +5043,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="20">
+      <c r="A160" s="13">
         <v>43968</v>
       </c>
       <c r="B160">
@@ -5068,7 +5069,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="20">
+      <c r="A161" s="13">
         <v>43999</v>
       </c>
       <c r="B161">
@@ -5094,7 +5095,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="20">
+      <c r="A162" s="13">
         <v>44029</v>
       </c>
       <c r="B162">
@@ -5120,7 +5121,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="20">
+      <c r="A163" s="13">
         <v>44060</v>
       </c>
       <c r="B163">
@@ -5146,7 +5147,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="20">
+      <c r="A164" s="13">
         <v>44091</v>
       </c>
       <c r="B164">
@@ -5172,7 +5173,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="20">
+      <c r="A165" s="13">
         <v>44121</v>
       </c>
       <c r="B165">
@@ -5198,7 +5199,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="20">
+      <c r="A166" s="13">
         <v>44152</v>
       </c>
       <c r="B166">
@@ -5224,7 +5225,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="20">
+      <c r="A167" s="13">
         <v>44182</v>
       </c>
       <c r="B167">
@@ -5250,7 +5251,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="20">
+      <c r="A168" s="13">
         <v>44213</v>
       </c>
       <c r="B168">
@@ -5276,7 +5277,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="20">
+      <c r="A169" s="13">
         <v>44244</v>
       </c>
       <c r="B169">
@@ -5302,7 +5303,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="20">
+      <c r="A170" s="13">
         <v>44272</v>
       </c>
       <c r="B170">
@@ -5328,7 +5329,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="20">
+      <c r="A171" s="13">
         <v>44303</v>
       </c>
       <c r="B171">
@@ -5354,7 +5355,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="20">
+      <c r="A172" s="13">
         <v>44333</v>
       </c>
       <c r="B172">
@@ -5380,7 +5381,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="20">
+      <c r="A173" s="13">
         <v>44364</v>
       </c>
       <c r="B173">
@@ -5406,7 +5407,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="20">
+      <c r="A174" s="13">
         <v>44394</v>
       </c>
       <c r="B174">
@@ -5432,7 +5433,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="20">
+      <c r="A175" s="13">
         <v>44425</v>
       </c>
       <c r="B175">
@@ -5458,7 +5459,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="20">
+      <c r="A176" s="13">
         <v>44456</v>
       </c>
       <c r="B176">
@@ -5484,7 +5485,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="20">
+      <c r="A177" s="13">
         <v>44486</v>
       </c>
       <c r="B177">
@@ -5510,7 +5511,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="20">
+      <c r="A178" s="13">
         <v>44517</v>
       </c>
       <c r="B178">
@@ -5536,7 +5537,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="20">
+      <c r="A179" s="13">
         <v>44547</v>
       </c>
       <c r="B179">
@@ -5562,7 +5563,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="20">
+      <c r="A180" s="13">
         <v>44578</v>
       </c>
       <c r="B180">
@@ -5588,7 +5589,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="20">
+      <c r="A181" s="13">
         <v>44609</v>
       </c>
       <c r="B181">
@@ -5614,7 +5615,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="20">
+      <c r="A182" s="13">
         <v>44637</v>
       </c>
       <c r="B182">
@@ -5640,7 +5641,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="20">
+      <c r="A183" s="13">
         <v>44668</v>
       </c>
       <c r="B183">
@@ -5666,7 +5667,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="20">
+      <c r="A184" s="13">
         <v>44698</v>
       </c>
       <c r="B184">
@@ -5692,7 +5693,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="20">
+      <c r="A185" s="13">
         <v>44729</v>
       </c>
       <c r="B185">
@@ -5718,7 +5719,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="20">
+      <c r="A186" s="13">
         <v>44759</v>
       </c>
       <c r="B186">
@@ -5744,7 +5745,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="20">
+      <c r="A187" s="13">
         <v>44790</v>
       </c>
       <c r="B187">
@@ -5770,7 +5771,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="20">
+      <c r="A188" s="13">
         <v>44821</v>
       </c>
       <c r="B188">
@@ -5796,7 +5797,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="20">
+      <c r="A189" s="13">
         <v>44851</v>
       </c>
       <c r="B189">
@@ -5822,7 +5823,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="20">
+      <c r="A190" s="13">
         <v>44882</v>
       </c>
       <c r="B190">
@@ -5848,7 +5849,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="20">
+      <c r="A191" s="13">
         <v>44912</v>
       </c>
       <c r="B191">
@@ -5874,7 +5875,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="20">
+      <c r="A192" s="13">
         <v>44943</v>
       </c>
       <c r="B192">
@@ -5900,7 +5901,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="20">
+      <c r="A193" s="13">
         <v>44974</v>
       </c>
       <c r="B193">
@@ -5926,7 +5927,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="20">
+      <c r="A194" s="13">
         <v>45002</v>
       </c>
       <c r="B194">
@@ -5952,7 +5953,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="20">
+      <c r="A195" s="13">
         <v>45033</v>
       </c>
       <c r="B195">
@@ -5978,7 +5979,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="20">
+      <c r="A196" s="13">
         <v>45063</v>
       </c>
       <c r="B196">
@@ -6004,7 +6005,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="20">
+      <c r="A197" s="13">
         <v>45094</v>
       </c>
       <c r="B197">
@@ -6030,7 +6031,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="20">
+      <c r="A198" s="13">
         <v>45124</v>
       </c>
       <c r="B198">
@@ -6056,7 +6057,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="20">
+      <c r="A199" s="13">
         <v>45155</v>
       </c>
       <c r="B199">
@@ -6082,7 +6083,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="20">
+      <c r="A200" s="13">
         <v>45186</v>
       </c>
       <c r="B200">
@@ -6108,7 +6109,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="20">
+      <c r="A201" s="13">
         <v>45216</v>
       </c>
       <c r="B201">
@@ -6134,7 +6135,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="20">
+      <c r="A202" s="13">
         <v>45247</v>
       </c>
       <c r="B202">
@@ -6160,7 +6161,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="20">
+      <c r="A203" s="13">
         <v>45277</v>
       </c>
       <c r="B203">
@@ -6186,7 +6187,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="20">
+      <c r="A204" s="13">
         <v>45308</v>
       </c>
       <c r="B204">
@@ -6212,7 +6213,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="20">
+      <c r="A205" s="13">
         <v>45339</v>
       </c>
       <c r="B205">
@@ -6238,7 +6239,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="20">
+      <c r="A206" s="13">
         <v>45368</v>
       </c>
       <c r="B206">
@@ -6264,7 +6265,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="20">
+      <c r="A207" s="13">
         <v>45399</v>
       </c>
       <c r="B207">
@@ -6290,7 +6291,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="20">
+      <c r="A208" s="13">
         <v>45429</v>
       </c>
       <c r="B208">
@@ -6316,7 +6317,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="20">
+      <c r="A209" s="13">
         <v>45460</v>
       </c>
       <c r="B209">
@@ -6342,7 +6343,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="20">
+      <c r="A210" s="13">
         <v>45490</v>
       </c>
       <c r="B210">
@@ -6368,7 +6369,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="20">
+      <c r="A211" s="13">
         <v>45521</v>
       </c>
       <c r="B211">
@@ -6394,7 +6395,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="20">
+      <c r="A212" s="13">
         <v>45552</v>
       </c>
       <c r="B212">
@@ -6420,7 +6421,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="20">
+      <c r="A213" s="13">
         <v>45582</v>
       </c>
       <c r="B213">
@@ -6446,7 +6447,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="20">
+      <c r="A214" s="13">
         <v>45613</v>
       </c>
       <c r="B214">
@@ -6472,7 +6473,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="20">
+      <c r="A215" s="13">
         <v>45643</v>
       </c>
       <c r="B215">
@@ -6498,7 +6499,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="20">
+      <c r="A216" s="13">
         <v>45674</v>
       </c>
       <c r="B216">
@@ -6524,7 +6525,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="20">
+      <c r="A217" s="13">
         <v>45705</v>
       </c>
       <c r="B217">
@@ -6550,7 +6551,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="20">
+      <c r="A218" s="13">
         <v>45733</v>
       </c>
       <c r="B218">
@@ -6576,7 +6577,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="20">
+      <c r="A219" s="13">
         <v>45764</v>
       </c>
       <c r="B219">
@@ -6602,7 +6603,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="20">
+      <c r="A220" s="13">
         <v>45794</v>
       </c>
       <c r="B220">
@@ -6628,7 +6629,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="20">
+      <c r="A221" s="13">
         <v>45825</v>
       </c>
       <c r="B221">
@@ -6654,7 +6655,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="20">
+      <c r="A222" s="13">
         <v>45855</v>
       </c>
       <c r="B222">
@@ -6680,7 +6681,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="20">
+      <c r="A223" s="13">
         <v>45886</v>
       </c>
       <c r="B223">
@@ -6706,7 +6707,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="20">
+      <c r="A224" s="13">
         <v>45917</v>
       </c>
       <c r="B224">
@@ -6732,7 +6733,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="20">
+      <c r="A225" s="13">
         <v>45947</v>
       </c>
       <c r="B225">
@@ -6758,7 +6759,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="20">
+      <c r="A226" s="13">
         <v>45978</v>
       </c>
       <c r="B226">
@@ -6784,7 +6785,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="20">
+      <c r="A227" s="13">
         <v>46008</v>
       </c>
       <c r="B227">
@@ -6810,7 +6811,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="20">
+      <c r="A228" s="13">
         <v>46039</v>
       </c>
       <c r="B228">
@@ -6836,7 +6837,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="20">
+      <c r="A229" s="13">
         <v>46070</v>
       </c>
       <c r="B229">
@@ -6862,7 +6863,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="20">
+      <c r="A230" s="13">
         <v>46098</v>
       </c>
       <c r="B230">
@@ -6888,7 +6889,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="20">
+      <c r="A231" s="13">
         <v>46129</v>
       </c>
       <c r="B231">
@@ -6914,7 +6915,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="20">
+      <c r="A232" s="13">
         <v>46159</v>
       </c>
       <c r="B232">
@@ -6940,7 +6941,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="20">
+      <c r="A233" s="13">
         <v>46190</v>
       </c>
       <c r="B233">
@@ -6966,7 +6967,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="20">
+      <c r="A234" s="13">
         <v>46220</v>
       </c>
       <c r="B234">
@@ -6992,7 +6993,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="20">
+      <c r="A235" s="13">
         <v>46251</v>
       </c>
       <c r="B235">
@@ -7018,7 +7019,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="20">
+      <c r="A236" s="13">
         <v>46282</v>
       </c>
       <c r="B236">
@@ -7044,7 +7045,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="20">
+      <c r="A237" s="13">
         <v>46312</v>
       </c>
       <c r="B237">
@@ -7070,7 +7071,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="20">
+      <c r="A238" s="13">
         <v>46343</v>
       </c>
       <c r="B238">
@@ -7096,7 +7097,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="20">
+      <c r="A239" s="13">
         <v>46373</v>
       </c>
       <c r="B239">
@@ -7122,7 +7123,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="20">
+      <c r="A240" s="13">
         <v>46404</v>
       </c>
       <c r="B240">
@@ -7148,7 +7149,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="20">
+      <c r="A241" s="13">
         <v>46435</v>
       </c>
       <c r="B241">
@@ -7174,7 +7175,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="20">
+      <c r="A242" s="13">
         <v>46463</v>
       </c>
       <c r="B242">
@@ -7200,7 +7201,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="20">
+      <c r="A243" s="13">
         <v>46494</v>
       </c>
       <c r="B243">
@@ -7226,7 +7227,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="20">
+      <c r="A244" s="13">
         <v>46524</v>
       </c>
       <c r="B244">
@@ -7252,7 +7253,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="20">
+      <c r="A245" s="13">
         <v>46555</v>
       </c>
       <c r="B245">
@@ -7278,7 +7279,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="20">
+      <c r="A246" s="13">
         <v>46585</v>
       </c>
       <c r="B246">
@@ -7304,7 +7305,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="20">
+      <c r="A247" s="13">
         <v>46616</v>
       </c>
       <c r="B247">
@@ -7330,7 +7331,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="20">
+      <c r="A248" s="13">
         <v>46647</v>
       </c>
       <c r="B248">
@@ -7356,7 +7357,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="20">
+      <c r="A249" s="13">
         <v>46677</v>
       </c>
       <c r="B249">
@@ -7382,7 +7383,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="20">
+      <c r="A250" s="13">
         <v>46708</v>
       </c>
       <c r="B250">
@@ -7408,7 +7409,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="20">
+      <c r="A251" s="13">
         <v>46738</v>
       </c>
       <c r="B251">
@@ -7434,7 +7435,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="20">
+      <c r="A252" s="13">
         <v>46769</v>
       </c>
       <c r="B252">
@@ -7460,7 +7461,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="20">
+      <c r="A253" s="13">
         <v>46800</v>
       </c>
       <c r="B253">
@@ -7486,7 +7487,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="20">
+      <c r="A254" s="13">
         <v>46829</v>
       </c>
       <c r="B254">
@@ -7512,7 +7513,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="20">
+      <c r="A255" s="13">
         <v>46860</v>
       </c>
       <c r="B255">
@@ -7538,7 +7539,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="20">
+      <c r="A256" s="13">
         <v>46890</v>
       </c>
       <c r="B256">
@@ -7564,7 +7565,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="20">
+      <c r="A257" s="13">
         <v>46921</v>
       </c>
       <c r="B257">
@@ -7590,7 +7591,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="20">
+      <c r="A258" s="13">
         <v>46951</v>
       </c>
       <c r="B258">
@@ -7616,7 +7617,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="20">
+      <c r="A259" s="13">
         <v>46982</v>
       </c>
       <c r="B259">
@@ -7642,7 +7643,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="20">
+      <c r="A260" s="13">
         <v>47013</v>
       </c>
       <c r="B260">
@@ -7668,7 +7669,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="20">
+      <c r="A261" s="13">
         <v>47043</v>
       </c>
       <c r="B261">
@@ -7694,7 +7695,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="20">
+      <c r="A262" s="13">
         <v>47074</v>
       </c>
       <c r="B262">
@@ -7720,7 +7721,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="20">
+      <c r="A263" s="13">
         <v>47104</v>
       </c>
       <c r="B263">
@@ -7746,7 +7747,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="20">
+      <c r="A264" s="13">
         <v>47135</v>
       </c>
       <c r="B264">
@@ -7772,7 +7773,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="20">
+      <c r="A265" s="13">
         <v>47166</v>
       </c>
       <c r="B265">
@@ -7798,7 +7799,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="20">
+      <c r="A266" s="13">
         <v>47194</v>
       </c>
       <c r="B266">
@@ -7824,7 +7825,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="20">
+      <c r="A267" s="13">
         <v>47225</v>
       </c>
       <c r="B267">
@@ -7850,7 +7851,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="20">
+      <c r="A268" s="13">
         <v>47255</v>
       </c>
       <c r="B268">
@@ -7876,7 +7877,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="20">
+      <c r="A269" s="13">
         <v>47286</v>
       </c>
       <c r="B269">
@@ -7902,7 +7903,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="20">
+      <c r="A270" s="13">
         <v>47316</v>
       </c>
       <c r="B270">
@@ -7928,7 +7929,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="20">
+      <c r="A271" s="13">
         <v>47347</v>
       </c>
       <c r="B271">
@@ -7954,7 +7955,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="20">
+      <c r="A272" s="13">
         <v>47378</v>
       </c>
       <c r="B272">
@@ -7980,7 +7981,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="20">
+      <c r="A273" s="13">
         <v>47408</v>
       </c>
       <c r="B273">
@@ -8006,7 +8007,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="20">
+      <c r="A274" s="13">
         <v>47439</v>
       </c>
       <c r="B274">
@@ -8032,7 +8033,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="20">
+      <c r="A275" s="13">
         <v>47469</v>
       </c>
       <c r="B275">
@@ -8058,7 +8059,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="20">
+      <c r="A276" s="13">
         <v>47500</v>
       </c>
       <c r="B276">
@@ -8084,7 +8085,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="20">
+      <c r="A277" s="13">
         <v>47531</v>
       </c>
       <c r="B277">
@@ -8110,7 +8111,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="20">
+      <c r="A278" s="13">
         <v>47559</v>
       </c>
       <c r="B278">
@@ -8136,7 +8137,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="20">
+      <c r="A279" s="13">
         <v>47590</v>
       </c>
       <c r="B279">
@@ -8162,7 +8163,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="20">
+      <c r="A280" s="13">
         <v>47620</v>
       </c>
       <c r="B280">
@@ -8188,7 +8189,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="20">
+      <c r="A281" s="13">
         <v>47651</v>
       </c>
       <c r="B281">
@@ -8214,7 +8215,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="20">
+      <c r="A282" s="13">
         <v>47681</v>
       </c>
       <c r="B282">
@@ -8240,7 +8241,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="20">
+      <c r="A283" s="13">
         <v>47712</v>
       </c>
       <c r="B283">
@@ -8266,7 +8267,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="20">
+      <c r="A284" s="13">
         <v>47743</v>
       </c>
       <c r="B284">
@@ -8292,7 +8293,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="20">
+      <c r="A285" s="13">
         <v>47773</v>
       </c>
       <c r="B285">
@@ -8318,7 +8319,7 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="20">
+      <c r="A286" s="13">
         <v>47804</v>
       </c>
       <c r="B286">
@@ -8344,7 +8345,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="20">
+      <c r="A287" s="13">
         <v>47834</v>
       </c>
       <c r="B287">
@@ -8370,7 +8371,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="20">
+      <c r="A288" s="13">
         <v>47865</v>
       </c>
       <c r="B288">
@@ -8396,7 +8397,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="20">
+      <c r="A289" s="13">
         <v>47896</v>
       </c>
       <c r="B289">
@@ -8422,7 +8423,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="20">
+      <c r="A290" s="13">
         <v>47924</v>
       </c>
       <c r="B290">
@@ -8448,7 +8449,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="20">
+      <c r="A291" s="13">
         <v>47955</v>
       </c>
       <c r="B291">
@@ -8474,7 +8475,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="20">
+      <c r="A292" s="13">
         <v>47985</v>
       </c>
       <c r="B292">
@@ -8500,7 +8501,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="20">
+      <c r="A293" s="13">
         <v>48016</v>
       </c>
       <c r="B293">
@@ -8526,7 +8527,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="20">
+      <c r="A294" s="13">
         <v>48046</v>
       </c>
       <c r="B294">
@@ -8552,7 +8553,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="20">
+      <c r="A295" s="13">
         <v>48077</v>
       </c>
       <c r="B295">
@@ -8578,7 +8579,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="20">
+      <c r="A296" s="13">
         <v>48108</v>
       </c>
       <c r="B296">
@@ -8604,7 +8605,7 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="20">
+      <c r="A297" s="13">
         <v>48138</v>
       </c>
       <c r="B297">
@@ -8630,7 +8631,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="20">
+      <c r="A298" s="13">
         <v>48169</v>
       </c>
       <c r="B298">
@@ -8656,7 +8657,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="20">
+      <c r="A299" s="13">
         <v>48199</v>
       </c>
       <c r="B299">
@@ -8682,7 +8683,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="20">
+      <c r="A300" s="13">
         <v>48230</v>
       </c>
       <c r="B300">
@@ -8708,7 +8709,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="20">
+      <c r="A301" s="13">
         <v>48261</v>
       </c>
       <c r="B301">
@@ -8743,7 +8744,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -8760,32 +8761,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>43237</v>
       </c>
       <c r="B2">
@@ -8811,7 +8812,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>43268</v>
       </c>
       <c r="B3">
@@ -8837,7 +8838,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>43298</v>
       </c>
       <c r="B4">
@@ -8863,7 +8864,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>43329</v>
       </c>
       <c r="B5">
@@ -8889,7 +8890,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="13">
         <v>43360</v>
       </c>
       <c r="B6">
@@ -8915,7 +8916,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="13">
         <v>43390</v>
       </c>
       <c r="B7">
@@ -8941,7 +8942,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <v>43421</v>
       </c>
       <c r="B8">
@@ -8967,7 +8968,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="13">
         <v>43451</v>
       </c>
       <c r="B9">
@@ -8993,7 +8994,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <v>43482</v>
       </c>
       <c r="B10">
@@ -9019,7 +9020,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="13">
         <v>43513</v>
       </c>
       <c r="B11">
@@ -9045,7 +9046,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="13">
         <v>43541</v>
       </c>
       <c r="B12">
@@ -9071,7 +9072,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="13">
         <v>43572</v>
       </c>
       <c r="B13">
@@ -9097,7 +9098,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="13">
         <v>43602</v>
       </c>
       <c r="B14">
@@ -9123,7 +9124,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="13">
         <v>43633</v>
       </c>
       <c r="B15">
@@ -9149,7 +9150,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="13">
         <v>43663</v>
       </c>
       <c r="B16">
@@ -9175,7 +9176,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="13">
         <v>43694</v>
       </c>
       <c r="B17">
@@ -9201,7 +9202,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="13">
         <v>43725</v>
       </c>
       <c r="B18">
@@ -9227,7 +9228,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="13">
         <v>43755</v>
       </c>
       <c r="B19">
@@ -9253,7 +9254,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="13">
         <v>43786</v>
       </c>
       <c r="B20">
@@ -9279,7 +9280,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="13">
         <v>43816</v>
       </c>
       <c r="B21">
@@ -9305,7 +9306,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="13">
         <v>43847</v>
       </c>
       <c r="B22">
@@ -9331,7 +9332,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="13">
         <v>43878</v>
       </c>
       <c r="B23">
@@ -9357,7 +9358,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="13">
         <v>43907</v>
       </c>
       <c r="B24">
@@ -9383,7 +9384,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="13">
         <v>43938</v>
       </c>
       <c r="B25">
@@ -9409,7 +9410,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="13">
         <v>43968</v>
       </c>
       <c r="B26">
@@ -9435,7 +9436,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="13">
         <v>43999</v>
       </c>
       <c r="B27">
@@ -9461,7 +9462,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="13">
         <v>44029</v>
       </c>
       <c r="B28">
@@ -9487,7 +9488,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="13">
         <v>44060</v>
       </c>
       <c r="B29">
@@ -9513,7 +9514,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="13">
         <v>44091</v>
       </c>
       <c r="B30">
@@ -9539,7 +9540,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="13">
         <v>44121</v>
       </c>
       <c r="B31">
@@ -9565,7 +9566,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="13">
         <v>44152</v>
       </c>
       <c r="B32">
@@ -9591,7 +9592,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="13">
         <v>44182</v>
       </c>
       <c r="B33">
@@ -9617,7 +9618,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="13">
         <v>44213</v>
       </c>
       <c r="B34">
@@ -9643,7 +9644,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="13">
         <v>44244</v>
       </c>
       <c r="B35">
@@ -9669,7 +9670,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="13">
         <v>44272</v>
       </c>
       <c r="B36">
@@ -9695,7 +9696,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="13">
         <v>44303</v>
       </c>
       <c r="B37">
@@ -9721,7 +9722,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="13">
         <v>44333</v>
       </c>
       <c r="B38">
@@ -9747,7 +9748,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="13">
         <v>44364</v>
       </c>
       <c r="B39">
@@ -9773,7 +9774,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="13">
         <v>44394</v>
       </c>
       <c r="B40">
@@ -9799,7 +9800,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="13">
         <v>44425</v>
       </c>
       <c r="B41">
@@ -9825,7 +9826,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="13">
         <v>44456</v>
       </c>
       <c r="B42">
@@ -9851,7 +9852,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="13">
         <v>44486</v>
       </c>
       <c r="B43">
@@ -9877,7 +9878,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="13">
         <v>44517</v>
       </c>
       <c r="B44">
@@ -9903,7 +9904,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="13">
         <v>44547</v>
       </c>
       <c r="B45">
@@ -9929,7 +9930,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="13">
         <v>44578</v>
       </c>
       <c r="B46">
@@ -9955,7 +9956,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="13">
         <v>44609</v>
       </c>
       <c r="B47">
@@ -9981,7 +9982,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="13">
         <v>44637</v>
       </c>
       <c r="B48">
@@ -10007,7 +10008,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="13">
         <v>44668</v>
       </c>
       <c r="B49">
@@ -10033,7 +10034,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="13">
         <v>44698</v>
       </c>
       <c r="B50">
@@ -10059,7 +10060,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="13">
         <v>44729</v>
       </c>
       <c r="B51">
@@ -10085,7 +10086,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="13">
         <v>44759</v>
       </c>
       <c r="B52">
@@ -10111,7 +10112,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" s="13">
         <v>44778</v>
       </c>
       <c r="B53">
@@ -10137,13 +10138,13 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>28</v>
+      <c r="A55" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H56">
         <f>SUM(E2:E52)</f>
@@ -10152,7 +10153,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <f>SUM(F2:F52)</f>
@@ -10161,7 +10162,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <f>SUM(G2:G52)</f>
@@ -10170,7 +10171,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <f>SUM(H52:H52)</f>
@@ -10179,7 +10180,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <f>SUM(G53:G53)</f>
@@ -10187,10 +10188,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="21">
+      <c r="A61" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="14">
         <f>SUM(H57:H60)</f>
         <v>65920.450000000012</v>
       </c>
